--- a/excel/pivot_table.xlsx
+++ b/excel/pivot_table.xlsx
@@ -699,7 +699,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1023,7 +1022,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1124,7 +1122,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1399,7 +1396,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2001,7 +1997,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:gradFill>
@@ -2369,7 +2364,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:pattFill prst="pct75">
               <a:fgClr>
@@ -2446,7 +2440,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -2822,7 +2815,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -3717,7 +3709,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4018,7 +4009,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4148,7 +4138,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:gradFill>
@@ -4239,7 +4228,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:pattFill prst="pct75">
               <a:fgClr>
@@ -4316,7 +4304,6 @@
                   <a:noFill/>
                 </a:ln>
               </c15:spPr>
-              <c15:layout/>
             </c:ext>
           </c:extLst>
         </c:dLbl>
@@ -4692,7 +4679,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
@@ -5927,7 +5913,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6029,7 +6014,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6092,7 +6076,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -6130,9 +6113,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -6207,7 +6188,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6404,7 +6384,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6506,7 +6485,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6795,7 +6773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16306,9 +16283,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:J11"/>
+      <selection activeCell="D1" sqref="D1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16683,11 +16658,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -16698,8 +16674,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>data_pivot!J2:J11</xm:f>
-              <xm:sqref>K3</xm:sqref>
+              <xm:f>data_pivot!G2:G11</xm:f>
+              <xm:sqref>G12</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16719,7 +16695,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -16730,8 +16706,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>data_pivot!G2:G11</xm:f>
-              <xm:sqref>G12</xm:sqref>
+              <xm:f>data_pivot!J2:J11</xm:f>
+              <xm:sqref>K3</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -16815,6 +16791,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D2:D5</xm:f>
+              <xm:sqref>E3</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -16828,22 +16820,6 @@
             <x14:sparkline>
               <xm:f>Sheet2!C2:C5</xm:f>
               <xm:sqref>E2</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>Sheet2!D2:D5</xm:f>
-              <xm:sqref>E3</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
